--- a/data/extracted_data/raw_round2/Dong_2024_Fig_2.xlsx
+++ b/data/extracted_data/raw_round2/Dong_2024_Fig_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD414E51-DE39-AB4A-96EF-9A8976FCEE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{AD414E51-DE39-AB4A-96EF-9A8976FCEE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCB67B76-E0AF-EE47-9407-3DD972FB9BCA}"/>
   <bookViews>
-    <workbookView xWindow="20400" yWindow="5260" windowWidth="28040" windowHeight="17440" xr2:uid="{A437FE9A-A3D6-784A-96BC-EE300D2ACC6B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{A437FE9A-A3D6-784A-96BC-EE300D2ACC6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
   <si>
     <t>treatment</t>
   </si>
   <si>
-    <t>H-exposure-hepatopancreas</t>
+    <t>species</t>
   </si>
   <si>
-    <t>time</t>
+    <t>H-exposure</t>
   </si>
   <si>
-    <t>toxticity</t>
+    <t>hepatopancreas</t>
   </si>
   <si>
-    <t>H-exposure-gills</t>
+    <t>gills</t>
   </si>
   <si>
-    <t>L-exposure-gills</t>
+    <t>L-exposure</t>
   </si>
   <si>
-    <t>L-exposure-hepatopancreas</t>
+    <t>toxicity</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
 </sst>
 </file>
@@ -112,9 +115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -258,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,245 +411,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF6764C-F142-FF46-B672-9AB98AFFEAEA}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="D2">
+        <v>328.46467391304299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1197.7401129943501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1676.19047619047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1342.8571428571399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>876.19047619047603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>328.46467391304299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D7">
+        <v>4.5454545454544997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>13.636363636363599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>79.097714736012605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>101.05397951142599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>85.973207249802996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1197.7401129943501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D12">
+        <v>22.727272727272801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>104.54545454545401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>33.0673758865249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>21.690307328605201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>184.38731284475901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>1676.19047619047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
+      <c r="D19">
+        <v>31.481481481481499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>1342.8571428571399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
+      <c r="D20">
+        <v>34.919227738376698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>876.19047619047603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>4.5454545454544997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>13.636363636363599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>79.097714736012605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>101.05397951142599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>85.973207249802996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>22.727272727272801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>104.54545454545401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>33.0673758865249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>21.690307328605201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>184.38731284475901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>31.481481481481499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>34.919227738376698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <v>14</v>
-      </c>
-      <c r="C21">
+      <c r="D21">
         <v>16.144602048857401</v>
       </c>
     </row>

--- a/data/extracted_data/raw_round2/Dong_2024_Fig_2.xlsx
+++ b/data/extracted_data/raw_round2/Dong_2024_Fig_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{AD414E51-DE39-AB4A-96EF-9A8976FCEE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCB67B76-E0AF-EE47-9407-3DD972FB9BCA}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{AD414E51-DE39-AB4A-96EF-9A8976FCEE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC229790-B8E9-D440-8AD0-000C7983B0E8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{A437FE9A-A3D6-784A-96BC-EE300D2ACC6B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{A437FE9A-A3D6-784A-96BC-EE300D2ACC6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
   <si>
     <t>treatment</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>day</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Uptake</t>
+  </si>
+  <si>
+    <t>Depuration</t>
   </si>
 </sst>
 </file>
@@ -112,6 +121,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,18 +424,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF6764C-F142-FF46-B672-9AB98AFFEAEA}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -430,289 +444,352 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>328.46467391304299</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
         <v>1197.7401129943501</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1676.19047619047</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>1342.8571428571399</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>876.19047619047603</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4.5454545454544997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
       </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <v>13.636363636363599</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>79.097714736012605</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>101.05397951142599</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
         <v>14</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>85.973207249802996</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>22.727272727272801</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
       </c>
       <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
         <v>104.54545454545401</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>33.0673758865249</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
         <v>21.690307328605201</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>184.38731284475901</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
       </c>
       <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>31.481481481481499</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
         <v>34.919227738376698</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
         <v>14</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>16.144602048857401</v>
       </c>
     </row>
